--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07514644587374564</v>
+        <v>0.07514644587374582</v>
       </c>
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04215534119371416</v>
+        <v>0.04215534119371438</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218648</v>
+        <v>0.07796894984218629</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>

--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07514644587374582</v>
+        <v>0.07514644587374568</v>
       </c>
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04215534119371438</v>
+        <v>0.04215534119371403</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218629</v>
+        <v>0.07796894984218644</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>

--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -467,7 +472,10 @@
       <c r="C2" t="n">
         <v>0.9883803810587179</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0.4321333824756292</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -485,7 +493,10 @@
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>0.2119198634755611</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -498,12 +509,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04215534119371403</v>
+        <v>0.04215534119371416</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.1361288253571671</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -516,12 +530,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218644</v>
+        <v>0.07796894984218661</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.1911874935925046</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +485,20 @@
           <t>multiple</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07514644587374568</v>
+        <v>0.07514644587374572</v>
       </c>
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2119198634755611</v>
+        <v>0.2119198634755614</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -509,17 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04215534119371416</v>
+        <v>0.0421553411937144</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1361288253571671</v>
+        <v>0.1361288253571674</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -530,17 +577,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218661</v>
+        <v>0.07796894984218621</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1911874935925046</v>
+        <v>0.1911874935925041</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       GradientBoostingRegressor())]),
+                                            param_grid={'model__max_depth': [3,
+                                                                             5,
+                                                                             7],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,16 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Modelo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
         </is>
       </c>
     </row>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07514644587374572</v>
+        <v>0.07514644587374571</v>
       </c>
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2119198634755614</v>
+        <v>0.2119198634755612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0421553411937144</v>
+        <v>0.04215534119371416</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1361288253571674</v>
+        <v>0.1361288253571671</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -569,6 +591,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.996</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -577,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218621</v>
+        <v>0.07796894984218657</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1911874935925041</v>
+        <v>0.1911874935925048</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,6 +632,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>0.4794827245333484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3955935532374564</v>
+        <v>0.3955935532374558</v>
       </c>
       <c r="C2" t="n">
         <v>0.9883803810587179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4321333824756292</v>
+        <v>0.4321333824756282</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07514644587374571</v>
+        <v>0.07514644587374558</v>
       </c>
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2119198634755612</v>
+        <v>0.211919863475561</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H3" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04215534119371416</v>
+        <v>0.0421553411937144</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1361288253571671</v>
+        <v>0.1361288253571675</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -588,14 +588,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218657</v>
+        <v>0.07796894984218661</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1911874935925048</v>
+        <v>0.1911874935925046</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,14 +629,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4794827245333484</v>
+        <v>0.5246799388667569</v>
       </c>
       <c r="H5" t="n">
-        <v>0.996</v>
+        <v>0.9420000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
+++ b/predictions/multiple/GradientBoostingRegressor/Retinopatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3955935532374558</v>
+        <v>0.3955935532374564</v>
       </c>
       <c r="C2" t="n">
         <v>0.9883803810587179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4321333824756282</v>
+        <v>0.4321333824756292</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07514644587374558</v>
+        <v>0.07514644587374561</v>
       </c>
       <c r="C3" t="n">
         <v>0.9989614557710448</v>
       </c>
       <c r="D3" t="n">
-        <v>0.211919863475561</v>
+        <v>0.2119198634755611</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="4">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0421553411937144</v>
+        <v>0.04215534119371416</v>
       </c>
       <c r="C4" t="n">
         <v>0.999565513886953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1361288253571675</v>
+        <v>0.136128825357167</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="5">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07796894984218661</v>
+        <v>0.07796894984218643</v>
       </c>
       <c r="C5" t="n">
         <v>0.9995355612121036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1911874935925046</v>
+        <v>0.1911874935925044</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5246799388667569</v>
+        <v>0.4760219657335256</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9420000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
   </sheetData>
